--- a/WisBlock/Wisblock.xlsx
+++ b/WisBlock/Wisblock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\blog\blog\source\WisBlock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A13759-D3E3-4661-BE7B-8C9505A7F993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CB5969-F608-4AD5-9351-B7503E27F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="195">
   <si>
     <t>RAK4631</t>
   </si>
@@ -309,343 +309,353 @@
     <t>RAK18000</t>
   </si>
   <si>
+    <t>RAK2305</t>
+  </si>
+  <si>
+    <t>RAK13300</t>
+  </si>
+  <si>
+    <t>RAK13101</t>
+  </si>
+  <si>
+    <t>RAK1920</t>
+  </si>
+  <si>
+    <t>RAK5801</t>
+  </si>
+  <si>
+    <t>RAK5802</t>
+  </si>
+  <si>
+    <t>RAK5804</t>
+  </si>
+  <si>
+    <t>RAK5811</t>
+  </si>
+  <si>
+    <t>RAK13001</t>
+  </si>
+  <si>
+    <t>RAK13002</t>
+  </si>
+  <si>
+    <t>RAK13003</t>
+  </si>
+  <si>
+    <t>RAK13004</t>
+  </si>
+  <si>
+    <t>RAK13005</t>
+  </si>
+  <si>
+    <t>RAK14002</t>
+  </si>
+  <si>
+    <t>RAK12002</t>
+  </si>
+  <si>
+    <t>RAK18001</t>
+  </si>
+  <si>
+    <t>RAK19005</t>
+  </si>
+  <si>
+    <t>RAK19008</t>
+  </si>
+  <si>
+    <t>RAK15000</t>
+  </si>
+  <si>
+    <t>RAK15001</t>
+  </si>
+  <si>
+    <t>RAK15002</t>
+  </si>
+  <si>
+    <t>RAK19002</t>
+  </si>
+  <si>
+    <t>RAK19006</t>
+  </si>
+  <si>
+    <t>RAK19004</t>
+  </si>
+  <si>
+    <t>RAK1921</t>
+  </si>
+  <si>
+    <t>RAK14000</t>
+  </si>
+  <si>
+    <t>RAK14001</t>
+  </si>
+  <si>
+    <t>RAK14003</t>
+  </si>
+  <si>
+    <t>RAK13600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK12016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK12013</t>
+  </si>
+  <si>
+    <t>RAK12014</t>
+  </si>
+  <si>
+    <t>RAK12023+RAK12035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK12017</t>
+  </si>
+  <si>
+    <t>RAK12019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK14006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK16001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK13007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK12018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK14004 / RAK14009 / RAK14010 / RAK14011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK1901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR Module</t>
+  </si>
+  <si>
+    <t>Ultrasonic</t>
+  </si>
+  <si>
+    <t>MQ3 Gas Sensor</t>
+  </si>
+  <si>
+    <t>Ambient Light</t>
+  </si>
+  <si>
+    <t>Barometer WT</t>
+  </si>
+  <si>
+    <t>Hear Rate Sensor</t>
+  </si>
+  <si>
+    <t>Vibration</t>
+  </si>
+  <si>
+    <t>Current Sensor</t>
+  </si>
+  <si>
+    <t>Temperature and Humidity Sensor</t>
+  </si>
+  <si>
+    <t>Barometric Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Ambient Light Sensor</t>
+  </si>
+  <si>
+    <t>3-axis acceleration sensor</t>
+  </si>
+  <si>
+    <t>Environmental Sensor</t>
+  </si>
+  <si>
+    <t>GNSS Location Module</t>
+  </si>
+  <si>
+    <t>Infrared Temperature Sensor Module</t>
+  </si>
+  <si>
+    <t>MQ2 Gas Sensor</t>
+  </si>
+  <si>
+    <t>Rain Sensor</t>
+  </si>
+  <si>
+    <t>PDM Stereo Microphone Module</t>
+  </si>
+  <si>
+    <t>Radar sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToF senor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soil Moisture Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flex Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB-IoT Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wi-Fi Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC Reader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPWAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Scanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotary Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keypad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC module</t>
+  </si>
+  <si>
+    <t>Buzzer Module</t>
+  </si>
+  <si>
+    <t>Sensor Extension Cable</t>
+  </si>
+  <si>
+    <t>IO Extension Cable</t>
+  </si>
+  <si>
+    <t>Sensor Adapter Module</t>
+  </si>
+  <si>
+    <t>4-20mA interface Module</t>
+  </si>
+  <si>
+    <t>RS485 interface Module</t>
+  </si>
+  <si>
+    <t>Interface Extension board</t>
+  </si>
+  <si>
+    <t>0-5V interface Module</t>
+  </si>
+  <si>
+    <t>Relay IO module</t>
+  </si>
+  <si>
+    <t>IO Module</t>
+  </si>
+  <si>
+    <t>IO Expansion Module</t>
+  </si>
+  <si>
+    <t>PWM Expansion Module</t>
+  </si>
+  <si>
+    <t>LIN module</t>
+  </si>
+  <si>
+    <t>3-channel Touchpad Module</t>
+  </si>
+  <si>
+    <t>EEPROM Module</t>
+  </si>
+  <si>
+    <t>Flash Module</t>
+  </si>
+  <si>
+    <t>SD Card Module</t>
+  </si>
+  <si>
+    <t>Boost Module</t>
+  </si>
+  <si>
+    <t>Wireless Charger</t>
+  </si>
+  <si>
+    <t>Green Power Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Motor Control </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Bar Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-Ink Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAK17000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RAK5860</t>
-  </si>
-  <si>
-    <t>RAK2305</t>
-  </si>
-  <si>
-    <t>RAK13300</t>
-  </si>
-  <si>
-    <t>RAK13101</t>
-  </si>
-  <si>
-    <t>RAK1920</t>
-  </si>
-  <si>
-    <t>RAK5801</t>
-  </si>
-  <si>
-    <t>RAK5802</t>
-  </si>
-  <si>
-    <t>RAK5804</t>
-  </si>
-  <si>
-    <t>RAK5811</t>
-  </si>
-  <si>
-    <t>RAK13001</t>
-  </si>
-  <si>
-    <t>RAK13002</t>
-  </si>
-  <si>
-    <t>RAK13003</t>
-  </si>
-  <si>
-    <t>RAK13004</t>
-  </si>
-  <si>
-    <t>RAK13005</t>
-  </si>
-  <si>
-    <t>RAK14002</t>
-  </si>
-  <si>
-    <t>RAK12002</t>
-  </si>
-  <si>
-    <t>RAK18001</t>
-  </si>
-  <si>
-    <t>RAK19005</t>
-  </si>
-  <si>
-    <t>RAK19008</t>
-  </si>
-  <si>
-    <t>RAK15000</t>
-  </si>
-  <si>
-    <t>RAK15001</t>
-  </si>
-  <si>
-    <t>RAK15002</t>
-  </si>
-  <si>
-    <t>RAK19002</t>
-  </si>
-  <si>
-    <t>RAK19006</t>
-  </si>
-  <si>
-    <t>RAK19004</t>
-  </si>
-  <si>
-    <t>RAK17000</t>
-  </si>
-  <si>
-    <t>RAK1921</t>
-  </si>
-  <si>
-    <t>RAK14000</t>
-  </si>
-  <si>
-    <t>RAK14001</t>
-  </si>
-  <si>
-    <t>RAK14003</t>
-  </si>
-  <si>
-    <t>RAK13600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK12016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK12013</t>
-  </si>
-  <si>
-    <t>RAK12014</t>
-  </si>
-  <si>
-    <t>RAK12023+RAK12035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK12017</t>
-  </si>
-  <si>
-    <t>RAK12019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK14006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK16001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK13007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK12018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK14004 / RAK14009 / RAK14010 / RAK14011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAK1901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIR Module</t>
-  </si>
-  <si>
-    <t>Ultrasonic</t>
-  </si>
-  <si>
-    <t>MQ3 Gas Sensor</t>
-  </si>
-  <si>
-    <t>Ambient Light</t>
-  </si>
-  <si>
-    <t>Barometer WT</t>
-  </si>
-  <si>
-    <t>Hear Rate Sensor</t>
-  </si>
-  <si>
-    <t>Vibration</t>
-  </si>
-  <si>
-    <t>Current Sensor</t>
-  </si>
-  <si>
-    <t>Temperature and Humidity Sensor</t>
-  </si>
-  <si>
-    <t>Barometric Pressure Sensor</t>
-  </si>
-  <si>
-    <t>Ambient Light Sensor</t>
-  </si>
-  <si>
-    <t>3-axis acceleration sensor</t>
-  </si>
-  <si>
-    <t>Environmental Sensor</t>
-  </si>
-  <si>
-    <t>GNSS Location Module</t>
-  </si>
-  <si>
-    <t>Infrared Temperature Sensor Module</t>
-  </si>
-  <si>
-    <t>MQ2 Gas Sensor</t>
-  </si>
-  <si>
-    <t>Rain Sensor</t>
-  </si>
-  <si>
-    <t>PDM Stereo Microphone Module</t>
-  </si>
-  <si>
-    <t>Radar sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToF senor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soil Moisture Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UV Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flex Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NB-IoT Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wi-Fi Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFC Reader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPWAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Scanner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rotary Input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keypad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTC module</t>
-  </si>
-  <si>
-    <t>Buzzer Module</t>
-  </si>
-  <si>
-    <t>Sensor Extension Cable</t>
-  </si>
-  <si>
-    <t>IO Extension Cable</t>
-  </si>
-  <si>
-    <t>Sensor Adapter Module</t>
-  </si>
-  <si>
-    <t>4-20mA interface Module</t>
-  </si>
-  <si>
-    <t>RS485 interface Module</t>
-  </si>
-  <si>
-    <t>Interface Extension board</t>
-  </si>
-  <si>
-    <t>0-5V interface Module</t>
-  </si>
-  <si>
-    <t>Relay IO module</t>
-  </si>
-  <si>
-    <t>IO Module</t>
-  </si>
-  <si>
-    <t>IO Expansion Module</t>
-  </si>
-  <si>
-    <t>PWM Expansion Module</t>
-  </si>
-  <si>
-    <t>LIN module</t>
-  </si>
-  <si>
-    <t>3-channel Touchpad Module</t>
-  </si>
-  <si>
-    <t>EEPROM Module</t>
-  </si>
-  <si>
-    <t>Flash Module</t>
-  </si>
-  <si>
-    <t>SD Card Module</t>
-  </si>
-  <si>
-    <t>Boost Module</t>
-  </si>
-  <si>
-    <t>Wireless Charger</t>
-  </si>
-  <si>
-    <t>Green Power Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Motor Control </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED Display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED Bar Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-Ink Display</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,11 +733,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1045,270 +1052,270 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="5" customWidth="1"/>
-    <col min="2" max="4" width="32" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="20.875" style="4" customWidth="1"/>
+    <col min="2" max="4" width="32" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1318,59 +1325,67 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A92C0-FB11-4420-969D-1E896D61B87E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="14.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1395,164 +1410,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1562,216 +1577,224 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51240552-6462-4D27-9146-87AB96C43ED7}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B26" s="10" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1782,55 +1805,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF80F26-2CE1-4068-B7D0-95C8C71AFE2B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
+      <c r="A5" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1841,146 +1873,154 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCF6578-258D-48FA-BAD9-CEDF8F964A18}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="43.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1991,53 +2031,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D397793D-5011-4CC5-8A07-63948EF8A764}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2047,45 +2095,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E564EEFD-C150-47F1-8DD0-169AFBEE54EB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2095,41 +2151,49 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31C16C2-46D5-4E80-A029-25E60CA6FC89}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2140,24 +2204,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E9F16E-5877-4787-A840-770D42056EC8}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>115</v>
+      <c r="A1" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
